--- a/biology/Botanique/Allium_galanthum/Allium_galanthum.xlsx
+++ b/biology/Botanique/Allium_galanthum/Allium_galanthum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium galanthum est une espèce d'oignon d'Asie de la famille des Amaryllidacées, communément appelée oignon perce-neige[1]. Il est originaire du Xinjiang, de la Mongolie, du Kraï de l'Altaï et du Kazakhstan[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium galanthum est une espèce d'oignon d'Asie de la famille des Amaryllidacées, communément appelée oignon perce-neige. Il est originaire du Xinjiang, de la Mongolie, du Kraï de l'Altaï et du Kazakhstan,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse sur les pentes sèches pierreuses et graveleuses des falaises et dans les vallées à des altitudes de 500 à 1500 mètres. On la trouve en Sibérie occidentale, Kashgar ; au Kazakhstan - régions centrale et orientale, Dzhungar Alatau, nord du Tien Shan (Zailiy Alatau, montagnes Chu-Ili). 
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium galanthum est une plante vivace qui forme des groupes de bulbes atteignant chacun 3 cm de diamètre. Ils sont cylindriques, à base légèrement renflée ; leur tunique est brun rougeâtre, finement coriace. Les hampes florales sont épaisses, vigoureuses et font 30 à 70 cm de hauteur. Les feuilles sont tubulaires cylindriques, fistuleuses et mesurent environ la moitié de la longueur des hampes. Les ombelles sont sphériques avec un grand nombre de fleurs blanches à pédicules égaux[2],[4],[5],[6]. La floraison a lieu en juin juillet et la fructification au mois d'aout.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium galanthum est une plante vivace qui forme des groupes de bulbes atteignant chacun 3 cm de diamètre. Ils sont cylindriques, à base légèrement renflée ; leur tunique est brun rougeâtre, finement coriace. Les hampes florales sont épaisses, vigoureuses et font 30 à 70 cm de hauteur. Les feuilles sont tubulaires cylindriques, fistuleuses et mesurent environ la moitié de la longueur des hampes. Les ombelles sont sphériques avec un grand nombre de fleurs blanches à pédicules égaux. La floraison a lieu en juin juillet et la fructification au mois d'aout.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium galanthum est comestible et aurait des usages médicinaux[1],[3]. Bien qu'aucun rapport individuel concernant cette espèce n'ait été observé, il y a eu des cas d'empoisonnement causés par la consommation, en grande quantité et par certains mammifères, de certains membres de ce genre. Les chiens semblent être particulièrement sensibles.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium galanthum est comestible et aurait des usages médicinaux,. Bien qu'aucun rapport individuel concernant cette espèce n'ait été observé, il y a eu des cas d'empoisonnement causés par la consommation, en grande quantité et par certains mammifères, de certains membres de ce genre. Les chiens semblent être particulièrement sensibles.
 </t>
         </is>
       </c>
